--- a/mobi_client/mobi_client/mobi_config/has_limit_state_excel/数据埋点.xlsx
+++ b/mobi_client/mobi_client/mobi_config/has_limit_state_excel/数据埋点.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel_has_limit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584431C6-1646-4611-B0C3-152E4A7B0611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView xWindow="-23115" yWindow="135" windowWidth="14835" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVGPoint" sheetId="3" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -73,230 +79,224 @@
     <t>string</t>
   </si>
   <si>
+    <t>C0_begin</t>
+  </si>
+  <si>
+    <t>C0_kaiselinoffice</t>
+  </si>
+  <si>
+    <t>C0_corridor1</t>
+  </si>
+  <si>
+    <t>C0_duoffice</t>
+  </si>
+  <si>
+    <t>C0_chouka</t>
+  </si>
+  <si>
+    <t>C1_du_office</t>
+  </si>
+  <si>
+    <t>C1_elevator</t>
+  </si>
+  <si>
+    <t>C1_cloister</t>
+  </si>
+  <si>
+    <t>C1_404home</t>
+  </si>
+  <si>
+    <t>C1_cloister_ex</t>
+  </si>
+  <si>
+    <t>C1_kaiselinoffice</t>
+  </si>
+  <si>
+    <t>C1_Epilogue</t>
+  </si>
+  <si>
+    <t>C3_UrgentPhone</t>
+  </si>
+  <si>
+    <t>C3_operational_chat</t>
+  </si>
+  <si>
+    <t>C3_reception</t>
+  </si>
+  <si>
+    <t>C3_office_kaiselin</t>
+  </si>
+  <si>
+    <t>C3_office_tuling</t>
+  </si>
+  <si>
+    <t>C3_luhuayuan</t>
+  </si>
+  <si>
+    <t>C3_laboratory</t>
+  </si>
+  <si>
+    <t>C3_dingshi_outside</t>
+  </si>
+  <si>
+    <t>C3_dingshi_76</t>
+  </si>
+  <si>
+    <t>cailiao_part0</t>
+  </si>
+  <si>
+    <t>cailiao_part1</t>
+  </si>
+  <si>
+    <t>cailiao_part2</t>
+  </si>
+  <si>
+    <t>cailiao_part3</t>
+  </si>
+  <si>
+    <t>cailiao_part4</t>
+  </si>
+  <si>
+    <t>cailiao_part5</t>
+  </si>
+  <si>
+    <t>cailiao_part6</t>
+  </si>
+  <si>
+    <t>cailiao_part7</t>
+  </si>
+  <si>
+    <t>theater_part1</t>
+  </si>
+  <si>
+    <t>theater_part2</t>
+  </si>
+  <si>
+    <t>theater_part3</t>
+  </si>
+  <si>
+    <t>theater_part4</t>
+  </si>
+  <si>
+    <t>theater_part5</t>
+  </si>
+  <si>
+    <t>theater_part6</t>
+  </si>
+  <si>
+    <t>kelei_part1</t>
+  </si>
+  <si>
+    <t>kelei_part2</t>
+  </si>
+  <si>
+    <t>kelei_part3</t>
+  </si>
+  <si>
+    <t>kelei_part4</t>
+  </si>
+  <si>
+    <t>kelei_part5</t>
+  </si>
+  <si>
+    <t>kelei_part6</t>
+  </si>
+  <si>
+    <t>luzhang_part1</t>
+  </si>
+  <si>
+    <t>luzhang_part2</t>
+  </si>
+  <si>
+    <t>luzhang_part3</t>
+  </si>
+  <si>
+    <t>luzhang_part4</t>
+  </si>
+  <si>
+    <t>luzhang_part5</t>
+  </si>
+  <si>
+    <t>luzhang_part6</t>
+  </si>
+  <si>
+    <t>luzhang_part7</t>
+  </si>
+  <si>
+    <t>luzhang_part8</t>
+  </si>
+  <si>
+    <t>qiqiushangfan_part1</t>
+  </si>
+  <si>
+    <t>qiqiushangfan_part2</t>
+  </si>
+  <si>
+    <t>qiqiushangfan_part3</t>
+  </si>
+  <si>
+    <t>qiqiushangfan_part4</t>
+  </si>
+  <si>
+    <t>qiqiushangfan_part5</t>
+  </si>
+  <si>
+    <t>tengjiangwuliu_part0</t>
+  </si>
+  <si>
+    <t>tengjiangwuliu_part1</t>
+  </si>
+  <si>
+    <t>tengjiangwuliu_part2</t>
+  </si>
+  <si>
+    <t>tengjiangwuliu_part3</t>
+  </si>
+  <si>
+    <t>tengjiangwuliu_part4</t>
+  </si>
+  <si>
+    <t>tengjiangwuliu_part5</t>
+  </si>
+  <si>
+    <t>tengjiangwuliu_part6</t>
+  </si>
+  <si>
+    <t>tengjiangwuliu_part7</t>
+  </si>
+  <si>
+    <t>tengjiangwuliu_part8</t>
+  </si>
+  <si>
+    <t>tengjiangwuliu_part9</t>
+  </si>
+  <si>
+    <t>xiaojiangshi_part1</t>
+  </si>
+  <si>
+    <t>xiaojiangshi_part2</t>
+  </si>
+  <si>
+    <t>xiaojiangshi_part3</t>
+  </si>
+  <si>
+    <t>xiaojiangshi_A</t>
+  </si>
+  <si>
+    <t>xiaojiangshi_B</t>
+  </si>
+  <si>
     <t>LimitState</t>
   </si>
   <si>
     <t>IN:[1;2]</t>
-  </si>
-  <si>
-    <t>C0_begin</t>
-  </si>
-  <si>
-    <t>C0_kaiselinoffice</t>
-  </si>
-  <si>
-    <t>C0_corridor1</t>
-  </si>
-  <si>
-    <t>C0_duoffice</t>
-  </si>
-  <si>
-    <t>C0_chouka</t>
-  </si>
-  <si>
-    <t>C1_du_office</t>
-  </si>
-  <si>
-    <t>C1_elevator</t>
-  </si>
-  <si>
-    <t>C1_cloister</t>
-  </si>
-  <si>
-    <t>C1_404home</t>
-  </si>
-  <si>
-    <t>C1_cloister_ex</t>
-  </si>
-  <si>
-    <t>C1_kaiselinoffice</t>
-  </si>
-  <si>
-    <t>C1_Epilogue</t>
-  </si>
-  <si>
-    <t>C3_UrgentPhone</t>
-  </si>
-  <si>
-    <t>C3_operational_chat</t>
-  </si>
-  <si>
-    <t>C3_reception</t>
-  </si>
-  <si>
-    <t>C3_office_kaiselin</t>
-  </si>
-  <si>
-    <t>C3_office_tuling</t>
-  </si>
-  <si>
-    <t>C3_luhuayuan</t>
-  </si>
-  <si>
-    <t>C3_laboratory</t>
-  </si>
-  <si>
-    <t>C3_dingshi_outside</t>
-  </si>
-  <si>
-    <t>C3_dingshi_76</t>
-  </si>
-  <si>
-    <t>cailiao_part0</t>
-  </si>
-  <si>
-    <t>cailiao_part1</t>
-  </si>
-  <si>
-    <t>cailiao_part2</t>
-  </si>
-  <si>
-    <t>cailiao_part3</t>
-  </si>
-  <si>
-    <t>cailiao_part4</t>
-  </si>
-  <si>
-    <t>cailiao_part5</t>
-  </si>
-  <si>
-    <t>cailiao_part6</t>
-  </si>
-  <si>
-    <t>cailiao_part7</t>
-  </si>
-  <si>
-    <t>theater_part1</t>
-  </si>
-  <si>
-    <t>theater_part2</t>
-  </si>
-  <si>
-    <t>theater_part3</t>
-  </si>
-  <si>
-    <t>theater_part4</t>
-  </si>
-  <si>
-    <t>theater_part5</t>
-  </si>
-  <si>
-    <t>theater_part6</t>
-  </si>
-  <si>
-    <t>kelei_part1</t>
-  </si>
-  <si>
-    <t>kelei_part2</t>
-  </si>
-  <si>
-    <t>kelei_part3</t>
-  </si>
-  <si>
-    <t>kelei_part4</t>
-  </si>
-  <si>
-    <t>kelei_part5</t>
-  </si>
-  <si>
-    <t>kelei_part6</t>
-  </si>
-  <si>
-    <t>luzhang_part1</t>
-  </si>
-  <si>
-    <t>luzhang_part2</t>
-  </si>
-  <si>
-    <t>luzhang_part3</t>
-  </si>
-  <si>
-    <t>luzhang_part4</t>
-  </si>
-  <si>
-    <t>luzhang_part5</t>
-  </si>
-  <si>
-    <t>luzhang_part6</t>
-  </si>
-  <si>
-    <t>luzhang_part7</t>
-  </si>
-  <si>
-    <t>luzhang_part8</t>
-  </si>
-  <si>
-    <t>qiqiushangfan_part1</t>
-  </si>
-  <si>
-    <t>qiqiushangfan_part2</t>
-  </si>
-  <si>
-    <t>qiqiushangfan_part3</t>
-  </si>
-  <si>
-    <t>qiqiushangfan_part4</t>
-  </si>
-  <si>
-    <t>qiqiushangfan_part5</t>
-  </si>
-  <si>
-    <t>tengjiangwuliu_part0</t>
-  </si>
-  <si>
-    <t>tengjiangwuliu_part1</t>
-  </si>
-  <si>
-    <t>tengjiangwuliu_part2</t>
-  </si>
-  <si>
-    <t>tengjiangwuliu_part3</t>
-  </si>
-  <si>
-    <t>tengjiangwuliu_part4</t>
-  </si>
-  <si>
-    <t>tengjiangwuliu_part5</t>
-  </si>
-  <si>
-    <t>tengjiangwuliu_part6</t>
-  </si>
-  <si>
-    <t>tengjiangwuliu_part7</t>
-  </si>
-  <si>
-    <t>tengjiangwuliu_part8</t>
-  </si>
-  <si>
-    <t>tengjiangwuliu_part9</t>
-  </si>
-  <si>
-    <t>xiaojiangshi_part1</t>
-  </si>
-  <si>
-    <t>xiaojiangshi_part2</t>
-  </si>
-  <si>
-    <t>xiaojiangshi_part3</t>
-  </si>
-  <si>
-    <t>xiaojiangshi_A</t>
-  </si>
-  <si>
-    <t>xiaojiangshi_B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,144 +327,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,8 +341,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,13 +363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399273659474471"/>
+        <fgColor theme="3" tint="0.39924314096499525"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,188 +379,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -714,324 +403,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1289,24 +692,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1328,7 +731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1339,777 +742,777 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>